--- a/JP (Exclude Game)/Dialog/Drama/_event.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_event.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">fadeIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WindRest</t>
   </si>
   <si>
     <t xml:space="preserve">editPlaylist</t>
@@ -627,7 +630,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1708,8 +1711,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>101</v>
@@ -1721,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,10 +1738,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,20 +1749,20 @@
         <v>5</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>3</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,10 +2059,10 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2311,10 +2317,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,12 +2595,15 @@
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>28</v>
@@ -2611,7 +2620,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
